--- a/DemoCoal/src/main/java/com/qa/testdata/TestData.xlsx
+++ b/DemoCoal/src/main/java/com/qa/testdata/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2436" windowWidth="12324" windowHeight="2160"/>
+    <workbookView xWindow="0" yWindow="312" windowWidth="12600" windowHeight="1968"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -410,12 +410,13 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
